--- a/Test_srx.xlsx
+++ b/Test_srx.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20356"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF696C3-5181-44E4-9900-AC53AE7777C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6364E35F-FBAF-458A-86E9-8FED1DCD7629}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Static_RX" sheetId="29" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="cooling profile new" sheetId="25" r:id="rId8"/>
     <sheet name="cooling profile isothermal" sheetId="26" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -668,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD7FDF9-C6BC-4919-97C1-F7F8A005AC19}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -1252,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,7 +1430,7 @@
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>1E-3</v>
       </c>
       <c r="C6">

--- a/Test_srx.xlsx
+++ b/Test_srx.xlsx
@@ -1,29 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF696C3-5181-44E4-9900-AC53AE7777C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60493163-8ACA-4450-B854-4AA5428FC100}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Static_RX" sheetId="29" r:id="rId1"/>
-    <sheet name="Input_Layout" sheetId="1" r:id="rId2"/>
-    <sheet name="Input_Layout_new" sheetId="28" r:id="rId3"/>
-    <sheet name="Input_Chemical" sheetId="23" r:id="rId4"/>
-    <sheet name="Input_Properties" sheetId="21" r:id="rId5"/>
-    <sheet name="cooling profile" sheetId="2" r:id="rId6"/>
-    <sheet name="chemical composition both" sheetId="24" r:id="rId7"/>
-    <sheet name="cooling profile new" sheetId="25" r:id="rId8"/>
-    <sheet name="cooling profile isothermal" sheetId="26" r:id="rId9"/>
+    <sheet name="Sheet5" sheetId="34" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="30" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="31" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="33" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="32" r:id="rId6"/>
+    <sheet name="Input_Layout" sheetId="1" r:id="rId7"/>
+    <sheet name="Input_Layout_new" sheetId="28" r:id="rId8"/>
+    <sheet name="Input_Chemical" sheetId="23" r:id="rId9"/>
+    <sheet name="Input_Properties" sheetId="21" r:id="rId10"/>
+    <sheet name="cooling profile" sheetId="2" r:id="rId11"/>
+    <sheet name="chemical composition both" sheetId="24" r:id="rId12"/>
+    <sheet name="cooling profile new" sheetId="25" r:id="rId13"/>
+    <sheet name="cooling profile isothermal" sheetId="26" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="81">
   <si>
     <t>time increment</t>
   </si>
@@ -668,8 +681,1861 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD7FDF9-C6BC-4919-97C1-F7F8A005AC19}">
   <dimension ref="A1:K19"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>1E-4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.4370965112493066</v>
+      </c>
+      <c r="E3">
+        <v>0.40289224217428177</v>
+      </c>
+      <c r="F3">
+        <v>0.40289224217428177</v>
+      </c>
+      <c r="G3">
+        <v>1043</v>
+      </c>
+      <c r="H3">
+        <v>1043</v>
+      </c>
+      <c r="I3">
+        <v>100000000000</v>
+      </c>
+      <c r="J3">
+        <v>1.0848968172989264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1E-3</v>
+      </c>
+      <c r="C4">
+        <v>0.4370965112493066</v>
+      </c>
+      <c r="D4">
+        <v>0.4370965112493066</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1043</v>
+      </c>
+      <c r="H4">
+        <v>993</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>44.594594594594589</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>1E-4</v>
+      </c>
+      <c r="C5">
+        <v>0.4370965112493066</v>
+      </c>
+      <c r="D5">
+        <v>1.0224091103950834</v>
+      </c>
+      <c r="E5">
+        <v>1.0144065843081056</v>
+      </c>
+      <c r="F5">
+        <v>1.0144065843081056</v>
+      </c>
+      <c r="G5">
+        <v>993</v>
+      </c>
+      <c r="H5">
+        <v>993</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>0.57699999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>1E-3</v>
+      </c>
+      <c r="C6">
+        <v>1.0224091103950834</v>
+      </c>
+      <c r="D6">
+        <v>1.0224091103950834</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>993</v>
+      </c>
+      <c r="H6">
+        <v>950</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>1E-4</v>
+      </c>
+      <c r="C7">
+        <v>1.0224091103950834</v>
+      </c>
+      <c r="D7">
+        <v>1.6688984393447279</v>
+      </c>
+      <c r="E7">
+        <v>2.8732859064428644</v>
+      </c>
+      <c r="F7">
+        <v>2.8732859064428644</v>
+      </c>
+      <c r="G7">
+        <v>950</v>
+      </c>
+      <c r="H7">
+        <v>950</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>1E-3</v>
+      </c>
+      <c r="C8">
+        <v>1.6688984393447279</v>
+      </c>
+      <c r="D8">
+        <v>1.6688984393447279</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>950</v>
+      </c>
+      <c r="H8">
+        <v>887</v>
+      </c>
+      <c r="J8">
+        <v>27.619047619047617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>1E-3</v>
+      </c>
+      <c r="C9">
+        <v>1.6688984393447279</v>
+      </c>
+      <c r="D9">
+        <v>1.6688984393447279</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>887</v>
+      </c>
+      <c r="H9">
+        <v>1115</v>
+      </c>
+      <c r="J9">
+        <v>13.095238095238095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>1E-3</v>
+      </c>
+      <c r="C10">
+        <v>1.6688984393447279</v>
+      </c>
+      <c r="D10">
+        <v>1.6688984393447279</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1115</v>
+      </c>
+      <c r="H10">
+        <v>1030</v>
+      </c>
+      <c r="J10">
+        <v>19.285714285714285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>1E-4</v>
+      </c>
+      <c r="C11">
+        <v>1.6688984393447279</v>
+      </c>
+      <c r="D11">
+        <v>2.4252664695945025</v>
+      </c>
+      <c r="E11">
+        <v>9.0043813124973155</v>
+      </c>
+      <c r="F11">
+        <v>9.0043813124973155</v>
+      </c>
+      <c r="G11">
+        <v>1030</v>
+      </c>
+      <c r="H11">
+        <v>1030</v>
+      </c>
+      <c r="J11">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>1E-4</v>
+      </c>
+      <c r="C12">
+        <v>2.4252664695945025</v>
+      </c>
+      <c r="D12">
+        <v>2.4252664695945025</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1030</v>
+      </c>
+      <c r="H12">
+        <v>986</v>
+      </c>
+      <c r="J12">
+        <v>5.5970149253731343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>1E-4</v>
+      </c>
+      <c r="C13">
+        <v>2.4252664695945025</v>
+      </c>
+      <c r="D13">
+        <v>3.017791991618723</v>
+      </c>
+      <c r="E13">
+        <v>19.750850734140684</v>
+      </c>
+      <c r="F13">
+        <v>19.750850734140684</v>
+      </c>
+      <c r="G13">
+        <v>986</v>
+      </c>
+      <c r="H13">
+        <v>986</v>
+      </c>
+      <c r="J13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>1E-4</v>
+      </c>
+      <c r="C14">
+        <v>3.017791991618723</v>
+      </c>
+      <c r="D14">
+        <v>3.017791991618723</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>986</v>
+      </c>
+      <c r="H14">
+        <v>943</v>
+      </c>
+      <c r="J14">
+        <v>3.0927835051546388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C15">
+        <v>3.017791991618723</v>
+      </c>
+      <c r="D15">
+        <v>3.5005155828640193</v>
+      </c>
+      <c r="E15">
+        <v>43.88396284048148</v>
+      </c>
+      <c r="F15">
+        <v>43.88396284048148</v>
+      </c>
+      <c r="G15">
+        <v>943</v>
+      </c>
+      <c r="H15">
+        <v>943</v>
+      </c>
+      <c r="J15">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>1E-4</v>
+      </c>
+      <c r="C16">
+        <v>3.5005155828640193</v>
+      </c>
+      <c r="D16">
+        <v>3.5005155828640193</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>943</v>
+      </c>
+      <c r="H16">
+        <v>902</v>
+      </c>
+      <c r="J16">
+        <v>1.9096117122851686</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C17">
+        <v>3.5005155828640193</v>
+      </c>
+      <c r="D17">
+        <v>3.880700534299105</v>
+      </c>
+      <c r="E17">
+        <v>63.364158572514278</v>
+      </c>
+      <c r="F17">
+        <v>63.364158572514278</v>
+      </c>
+      <c r="G17">
+        <v>902</v>
+      </c>
+      <c r="H17">
+        <v>902</v>
+      </c>
+      <c r="J17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>1E-4</v>
+      </c>
+      <c r="C18">
+        <v>3.880700534299105</v>
+      </c>
+      <c r="D18">
+        <v>3.880700534299105</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>902</v>
+      </c>
+      <c r="H18">
+        <v>862</v>
+      </c>
+      <c r="J18">
+        <v>1.3060513713539399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C19">
+        <v>3.880700534299105</v>
+      </c>
+      <c r="D19">
+        <v>4.0852947267021831</v>
+      </c>
+      <c r="E19">
+        <v>68.198064134359356</v>
+      </c>
+      <c r="F19">
+        <v>68.198064134359356</v>
+      </c>
+      <c r="G19">
+        <v>862</v>
+      </c>
+      <c r="H19">
+        <v>862</v>
+      </c>
+      <c r="J19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="4">
+        <v>81000000000</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>1709</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4">
+        <v>31400000000000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>0.06</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <v>0.8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>1.4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14">
+        <v>1E-4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16">
+        <v>0.9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="4">
+        <v>10.26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>1.9148936170212765</v>
+      </c>
+      <c r="C3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2.408510638297872</v>
+      </c>
+      <c r="C4">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5">
+        <v>2.9021276595744676</v>
+      </c>
+      <c r="C5">
+        <v>659</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6">
+        <v>3.3957446808510632</v>
+      </c>
+      <c r="C6">
+        <v>581</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7">
+        <v>3.8893617021276587</v>
+      </c>
+      <c r="C7">
+        <v>579</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8">
+        <v>4.3829787234042543</v>
+      </c>
+      <c r="C8">
+        <v>576</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9">
+        <v>4.8765957446808503</v>
+      </c>
+      <c r="C9">
+        <v>574</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10">
+        <v>5.3702127659574463</v>
+      </c>
+      <c r="C10">
+        <v>572</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11">
+        <v>5.8638297872340424</v>
+      </c>
+      <c r="C11">
+        <v>570</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12">
+        <v>6.3574468085106384</v>
+      </c>
+      <c r="C12">
+        <v>567</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13">
+        <v>6.8510638297872344</v>
+      </c>
+      <c r="C13">
+        <v>565</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14">
+        <v>7.3446808510638304</v>
+      </c>
+      <c r="C14">
+        <v>563</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15">
+        <v>7.8382978723404264</v>
+      </c>
+      <c r="C15">
+        <v>561</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16">
+        <v>8.3319148936170215</v>
+      </c>
+      <c r="C16">
+        <v>558</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17">
+        <v>8.8255319148936167</v>
+      </c>
+      <c r="C17">
+        <v>556</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18">
+        <v>9.3191489361702118</v>
+      </c>
+      <c r="C18">
+        <v>554</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19">
+        <v>9.8127659574468069</v>
+      </c>
+      <c r="C19">
+        <v>552</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20">
+        <v>10.306382978723402</v>
+      </c>
+      <c r="C20">
+        <v>550</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21">
+        <v>10.799999999999997</v>
+      </c>
+      <c r="C21">
+        <v>548</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22">
+        <v>11.293617021276592</v>
+      </c>
+      <c r="C22">
+        <v>546</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23">
+        <v>11.787234042553187</v>
+      </c>
+      <c r="C23">
+        <v>544</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24">
+        <v>12.280851063829783</v>
+      </c>
+      <c r="C24">
+        <v>457</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25">
+        <v>12.774468085106378</v>
+      </c>
+      <c r="C25">
+        <v>372</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>13.268085106382973</v>
+      </c>
+      <c r="C26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>13.761702127659568</v>
+      </c>
+      <c r="C27">
+        <v>239</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28">
+        <v>15.463829787234037</v>
+      </c>
+      <c r="C28">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>1.22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5">
+        <v>0.40899999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6">
+        <v>1.03E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="A1:C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>1.91</v>
+      </c>
+      <c r="C3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2.41</v>
+      </c>
+      <c r="C4">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2.9</v>
+      </c>
+      <c r="C5">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3.4</v>
+      </c>
+      <c r="C6">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3.89</v>
+      </c>
+      <c r="C7">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4.38</v>
+      </c>
+      <c r="C8">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>4.88</v>
+      </c>
+      <c r="C9">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5.37</v>
+      </c>
+      <c r="C10">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>5.86</v>
+      </c>
+      <c r="C11">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>6.36</v>
+      </c>
+      <c r="C12">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>6.85</v>
+      </c>
+      <c r="C13">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>7.34</v>
+      </c>
+      <c r="C14">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>7.84</v>
+      </c>
+      <c r="C15">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>8.33</v>
+      </c>
+      <c r="C16">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>8.83</v>
+      </c>
+      <c r="C17">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>9.32</v>
+      </c>
+      <c r="C18">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>9.81</v>
+      </c>
+      <c r="C19">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>10.31</v>
+      </c>
+      <c r="C20">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>10.8</v>
+      </c>
+      <c r="C21">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>11.29</v>
+      </c>
+      <c r="C22">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>11.79</v>
+      </c>
+      <c r="C23">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>12.28</v>
+      </c>
+      <c r="C24">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>12.77</v>
+      </c>
+      <c r="C25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>13.27</v>
+      </c>
+      <c r="C26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>13.76</v>
+      </c>
+      <c r="C27">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28">
+        <v>15.46</v>
+      </c>
+      <c r="C28">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>1.91</v>
+      </c>
+      <c r="C3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2.41</v>
+      </c>
+      <c r="C4">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2.9</v>
+      </c>
+      <c r="C5">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3.4</v>
+      </c>
+      <c r="C6">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3.89</v>
+      </c>
+      <c r="C7">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4.38</v>
+      </c>
+      <c r="C8">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>4.88</v>
+      </c>
+      <c r="C9">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5.37</v>
+      </c>
+      <c r="C10">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>5.86</v>
+      </c>
+      <c r="C11">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>6.36</v>
+      </c>
+      <c r="C12">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>6.85</v>
+      </c>
+      <c r="C13">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>7.34</v>
+      </c>
+      <c r="C14">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>7.84</v>
+      </c>
+      <c r="C15">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>8.33</v>
+      </c>
+      <c r="C16">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>8.83</v>
+      </c>
+      <c r="C17">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>9.32</v>
+      </c>
+      <c r="C18">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>9.81</v>
+      </c>
+      <c r="C19">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>10.31</v>
+      </c>
+      <c r="C20">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>10.8</v>
+      </c>
+      <c r="C21">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>11.29</v>
+      </c>
+      <c r="C22">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>11.79</v>
+      </c>
+      <c r="C23">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>12.28</v>
+      </c>
+      <c r="C24">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>12.77</v>
+      </c>
+      <c r="C25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>13.27</v>
+      </c>
+      <c r="C26">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>13.76</v>
+      </c>
+      <c r="C27">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>15.46</v>
+      </c>
+      <c r="C28">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>15.712999999999999</v>
+      </c>
+      <c r="C29">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>16.448</v>
+      </c>
+      <c r="C30">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>17.183</v>
+      </c>
+      <c r="C31">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>17.917999999999999</v>
+      </c>
+      <c r="C32">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>18.652999999999999</v>
+      </c>
+      <c r="C33">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>19.388000000000002</v>
+      </c>
+      <c r="C34">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>20.123000000000001</v>
+      </c>
+      <c r="C35">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>20.858000000000001</v>
+      </c>
+      <c r="C36">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>21.593</v>
+      </c>
+      <c r="C37">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>22.327999999999999</v>
+      </c>
+      <c r="C38">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>23.062999999999999</v>
+      </c>
+      <c r="C39">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>23.797999999999998</v>
+      </c>
+      <c r="C40">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>24.533000000000001</v>
+      </c>
+      <c r="C41">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB74D394-5713-40A3-A1E4-246785572834}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,360 +2761,595 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <v>1E-3</v>
-      </c>
-      <c r="C8">
-        <v>1.6688984393447279</v>
-      </c>
-      <c r="D8">
-        <v>1.6688984393447279</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>950</v>
-      </c>
-      <c r="H8">
-        <v>887</v>
-      </c>
-      <c r="J8">
-        <v>27.619047619047617</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>1E-3</v>
-      </c>
-      <c r="C9">
-        <v>1.6688984393447279</v>
-      </c>
-      <c r="D9">
-        <v>1.6688984393447279</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>887</v>
-      </c>
-      <c r="H9">
-        <v>1115</v>
-      </c>
-      <c r="J9">
-        <v>13.095238095238095</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10">
-        <v>1E-3</v>
-      </c>
-      <c r="C10">
-        <v>1.6688984393447279</v>
-      </c>
-      <c r="D10">
-        <v>1.6688984393447279</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1115</v>
-      </c>
-      <c r="H10">
-        <v>1030</v>
-      </c>
-      <c r="J10">
-        <v>19.285714285714285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>1E-4</v>
-      </c>
-      <c r="C11">
-        <v>1.6688984393447279</v>
-      </c>
-      <c r="D11">
-        <v>2.4252664695945025</v>
-      </c>
-      <c r="E11">
-        <v>9.0043813124973155</v>
-      </c>
-      <c r="F11">
-        <v>9.0043813124973155</v>
-      </c>
-      <c r="G11">
-        <v>1030</v>
-      </c>
-      <c r="H11">
-        <v>1030</v>
-      </c>
-      <c r="J11">
-        <v>8.4000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12">
-        <v>1E-4</v>
-      </c>
-      <c r="C12">
-        <v>2.4252664695945025</v>
-      </c>
-      <c r="D12">
-        <v>2.4252664695945025</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1030</v>
-      </c>
-      <c r="H12">
-        <v>986</v>
-      </c>
-      <c r="J12">
-        <v>5.5970149253731343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13">
-        <v>1E-4</v>
-      </c>
-      <c r="C13">
-        <v>2.4252664695945025</v>
-      </c>
-      <c r="D13">
-        <v>3.017791991618723</v>
-      </c>
-      <c r="E13">
-        <v>19.750850734140684</v>
-      </c>
-      <c r="F13">
-        <v>19.750850734140684</v>
-      </c>
-      <c r="G13">
-        <v>986</v>
-      </c>
-      <c r="H13">
-        <v>986</v>
-      </c>
-      <c r="J13">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14">
-        <v>1E-4</v>
-      </c>
-      <c r="C14">
-        <v>3.017791991618723</v>
-      </c>
-      <c r="D14">
-        <v>3.017791991618723</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>986</v>
-      </c>
-      <c r="H14">
-        <v>943</v>
-      </c>
-      <c r="J14">
-        <v>3.0927835051546388</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C15">
-        <v>3.017791991618723</v>
-      </c>
-      <c r="D15">
-        <v>3.5005155828640193</v>
-      </c>
-      <c r="E15">
-        <v>43.88396284048148</v>
-      </c>
-      <c r="F15">
-        <v>43.88396284048148</v>
-      </c>
-      <c r="G15">
-        <v>943</v>
-      </c>
-      <c r="H15">
-        <v>943</v>
-      </c>
-      <c r="J15">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16">
-        <v>1E-4</v>
-      </c>
-      <c r="C16">
-        <v>3.5005155828640193</v>
-      </c>
-      <c r="D16">
-        <v>3.5005155828640193</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>943</v>
-      </c>
-      <c r="H16">
-        <v>902</v>
-      </c>
-      <c r="J16">
-        <v>1.9096117122851686</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C17">
-        <v>3.5005155828640193</v>
-      </c>
-      <c r="D17">
-        <v>3.880700534299105</v>
-      </c>
-      <c r="E17">
-        <v>63.364158572514278</v>
-      </c>
-      <c r="F17">
-        <v>63.364158572514278</v>
-      </c>
-      <c r="G17">
-        <v>902</v>
-      </c>
-      <c r="H17">
-        <v>902</v>
-      </c>
-      <c r="J17">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18">
-        <v>1E-4</v>
-      </c>
-      <c r="C18">
-        <v>3.880700534299105</v>
-      </c>
-      <c r="D18">
-        <v>3.880700534299105</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>902</v>
-      </c>
-      <c r="H18">
-        <v>862</v>
-      </c>
-      <c r="J18">
-        <v>1.3060513713539399</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C19">
-        <v>3.880700534299105</v>
-      </c>
-      <c r="D19">
-        <v>4.0852947267021831</v>
-      </c>
-      <c r="E19">
-        <v>68.198064134359356</v>
-      </c>
-      <c r="F19">
-        <v>68.198064134359356</v>
-      </c>
-      <c r="G19">
-        <v>862</v>
-      </c>
-      <c r="H19">
-        <v>862</v>
-      </c>
-      <c r="J19">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CA8E0F-7DD2-4E11-A903-5338698E3815}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>1E-4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.8</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <v>0.1</v>
+      </c>
+      <c r="G3">
+        <v>1050</v>
+      </c>
+      <c r="H3">
+        <v>1050</v>
+      </c>
+      <c r="I3">
+        <v>100000000000</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1E-3</v>
+      </c>
+      <c r="C4">
+        <v>0.8</v>
+      </c>
+      <c r="D4">
+        <v>0.8</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1050</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>44.594594594594589</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>1E-4</v>
+      </c>
+      <c r="C5">
+        <v>0.8</v>
+      </c>
+      <c r="D5">
+        <v>1.4</v>
+      </c>
+      <c r="E5">
+        <v>1.0144065843081056</v>
+      </c>
+      <c r="F5">
+        <v>1.0144065843081056</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>0.59174881099999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C01332-2CC9-4428-A43C-3668ABBFE33D}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>1E-4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.3</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <v>0.1</v>
+      </c>
+      <c r="G3">
+        <f>950-273</f>
+        <v>677</v>
+      </c>
+      <c r="H3">
+        <v>677</v>
+      </c>
+      <c r="I3">
+        <v>100000000000</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1E-3</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4">
+        <v>0.3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>677</v>
+      </c>
+      <c r="H4">
+        <v>677</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>60</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3822E1-BBD6-4F70-A95A-96E7BB6C2EA7}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>1E-4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.3</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <v>0.1</v>
+      </c>
+      <c r="G3">
+        <v>1050</v>
+      </c>
+      <c r="H3">
+        <v>1050</v>
+      </c>
+      <c r="I3">
+        <v>100000000000</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1E-4</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4">
+        <v>0.3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1050</v>
+      </c>
+      <c r="H4">
+        <v>1050</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF6B907-1E7A-4549-89D3-1478CC1C4098}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>1E-4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.8</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <v>0.1</v>
+      </c>
+      <c r="G3">
+        <v>1050</v>
+      </c>
+      <c r="H3">
+        <v>1050</v>
+      </c>
+      <c r="I3">
+        <v>100000000000</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -1856,7 +3957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -2459,7 +4560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -2552,1269 +4653,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="45" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="4">
-        <v>81000000000</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2">
-        <v>1709</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="4">
-        <v>31400000000000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6">
-        <v>0.1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7">
-        <v>0.06</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9">
-        <v>0.8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13">
-        <v>1.4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14">
-        <v>1E-4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16">
-        <v>0.9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="4">
-        <v>10.26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>1.9148936170212765</v>
-      </c>
-      <c r="C3">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2.408510638297872</v>
-      </c>
-      <c r="C4">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5">
-        <v>2.9021276595744676</v>
-      </c>
-      <c r="C5">
-        <v>659</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6">
-        <v>3.3957446808510632</v>
-      </c>
-      <c r="C6">
-        <v>581</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7">
-        <v>3.8893617021276587</v>
-      </c>
-      <c r="C7">
-        <v>579</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8">
-        <v>4.3829787234042543</v>
-      </c>
-      <c r="C8">
-        <v>576</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9">
-        <v>4.8765957446808503</v>
-      </c>
-      <c r="C9">
-        <v>574</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10">
-        <v>5.3702127659574463</v>
-      </c>
-      <c r="C10">
-        <v>572</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11">
-        <v>5.8638297872340424</v>
-      </c>
-      <c r="C11">
-        <v>570</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12">
-        <v>6.3574468085106384</v>
-      </c>
-      <c r="C12">
-        <v>567</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13">
-        <v>6.8510638297872344</v>
-      </c>
-      <c r="C13">
-        <v>565</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14">
-        <v>7.3446808510638304</v>
-      </c>
-      <c r="C14">
-        <v>563</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15">
-        <v>7.8382978723404264</v>
-      </c>
-      <c r="C15">
-        <v>561</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16">
-        <v>8.3319148936170215</v>
-      </c>
-      <c r="C16">
-        <v>558</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17">
-        <v>8.8255319148936167</v>
-      </c>
-      <c r="C17">
-        <v>556</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18">
-        <v>9.3191489361702118</v>
-      </c>
-      <c r="C18">
-        <v>554</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19">
-        <v>9.8127659574468069</v>
-      </c>
-      <c r="C19">
-        <v>552</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20">
-        <v>10.306382978723402</v>
-      </c>
-      <c r="C20">
-        <v>550</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21">
-        <v>10.799999999999997</v>
-      </c>
-      <c r="C21">
-        <v>548</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22">
-        <v>11.293617021276592</v>
-      </c>
-      <c r="C22">
-        <v>546</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23">
-        <v>11.787234042553187</v>
-      </c>
-      <c r="C23">
-        <v>544</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24">
-        <v>12.280851063829783</v>
-      </c>
-      <c r="C24">
-        <v>457</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25">
-        <v>12.774468085106378</v>
-      </c>
-      <c r="C25">
-        <v>372</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>13.268085106382973</v>
-      </c>
-      <c r="C26">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27">
-        <v>13.761702127659568</v>
-      </c>
-      <c r="C27">
-        <v>239</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28">
-        <v>15.463829787234037</v>
-      </c>
-      <c r="C28">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2">
-        <v>0.10100000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3">
-        <v>1.22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4">
-        <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="D5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5">
-        <v>0.40899999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6">
-        <v>1.03E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="A1:C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>1.91</v>
-      </c>
-      <c r="C3">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2.41</v>
-      </c>
-      <c r="C4">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2.9</v>
-      </c>
-      <c r="C5">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3.4</v>
-      </c>
-      <c r="C6">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>3.89</v>
-      </c>
-      <c r="C7">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>4.38</v>
-      </c>
-      <c r="C8">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>4.88</v>
-      </c>
-      <c r="C9">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>5.37</v>
-      </c>
-      <c r="C10">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>5.86</v>
-      </c>
-      <c r="C11">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>6.36</v>
-      </c>
-      <c r="C12">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>6.85</v>
-      </c>
-      <c r="C13">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>7.34</v>
-      </c>
-      <c r="C14">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>7.84</v>
-      </c>
-      <c r="C15">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>8.33</v>
-      </c>
-      <c r="C16">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>8.83</v>
-      </c>
-      <c r="C17">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>9.32</v>
-      </c>
-      <c r="C18">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>9.81</v>
-      </c>
-      <c r="C19">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>10.31</v>
-      </c>
-      <c r="C20">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>10.8</v>
-      </c>
-      <c r="C21">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>11.29</v>
-      </c>
-      <c r="C22">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>11.79</v>
-      </c>
-      <c r="C23">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>12.28</v>
-      </c>
-      <c r="C24">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>12.77</v>
-      </c>
-      <c r="C25">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>13.27</v>
-      </c>
-      <c r="C26">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27">
-        <v>13.76</v>
-      </c>
-      <c r="C27">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28">
-        <v>15.46</v>
-      </c>
-      <c r="C28">
-        <v>250</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>1.91</v>
-      </c>
-      <c r="C3">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2.41</v>
-      </c>
-      <c r="C4">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2.9</v>
-      </c>
-      <c r="C5">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3.4</v>
-      </c>
-      <c r="C6">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>3.89</v>
-      </c>
-      <c r="C7">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>4.38</v>
-      </c>
-      <c r="C8">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>4.88</v>
-      </c>
-      <c r="C9">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>5.37</v>
-      </c>
-      <c r="C10">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>5.86</v>
-      </c>
-      <c r="C11">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>6.36</v>
-      </c>
-      <c r="C12">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>6.85</v>
-      </c>
-      <c r="C13">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>7.34</v>
-      </c>
-      <c r="C14">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>7.84</v>
-      </c>
-      <c r="C15">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>8.33</v>
-      </c>
-      <c r="C16">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>8.83</v>
-      </c>
-      <c r="C17">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>9.32</v>
-      </c>
-      <c r="C18">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>9.81</v>
-      </c>
-      <c r="C19">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>10.31</v>
-      </c>
-      <c r="C20">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>10.8</v>
-      </c>
-      <c r="C21">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>11.29</v>
-      </c>
-      <c r="C22">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>11.79</v>
-      </c>
-      <c r="C23">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>12.28</v>
-      </c>
-      <c r="C24">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>12.77</v>
-      </c>
-      <c r="C25">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>13.27</v>
-      </c>
-      <c r="C26">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>13.76</v>
-      </c>
-      <c r="C27">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>15.46</v>
-      </c>
-      <c r="C28">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>15.712999999999999</v>
-      </c>
-      <c r="C29">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>16.448</v>
-      </c>
-      <c r="C30">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>17.183</v>
-      </c>
-      <c r="C31">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>17.917999999999999</v>
-      </c>
-      <c r="C32">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>18.652999999999999</v>
-      </c>
-      <c r="C33">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>19.388000000000002</v>
-      </c>
-      <c r="C34">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>20.123000000000001</v>
-      </c>
-      <c r="C35">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>20.858000000000001</v>
-      </c>
-      <c r="C36">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>21.593</v>
-      </c>
-      <c r="C37">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>22.327999999999999</v>
-      </c>
-      <c r="C38">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>23.062999999999999</v>
-      </c>
-      <c r="C39">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>23.797999999999998</v>
-      </c>
-      <c r="C40">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>24.533000000000001</v>
-      </c>
-      <c r="C41">
-        <v>280</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Test_srx.xlsx
+++ b/Test_srx.xlsx
@@ -3,25 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60493163-8ACA-4450-B854-4AA5428FC100}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CDB12E-4CC3-4C2D-86DE-BBF04064E07D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Static_RX" sheetId="29" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="34" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="30" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="31" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="33" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="32" r:id="rId6"/>
-    <sheet name="Input_Layout" sheetId="1" r:id="rId7"/>
-    <sheet name="Input_Layout_new" sheetId="28" r:id="rId8"/>
-    <sheet name="Input_Chemical" sheetId="23" r:id="rId9"/>
-    <sheet name="Input_Properties" sheetId="21" r:id="rId10"/>
-    <sheet name="cooling profile" sheetId="2" r:id="rId11"/>
-    <sheet name="chemical composition both" sheetId="24" r:id="rId12"/>
-    <sheet name="cooling profile new" sheetId="25" r:id="rId13"/>
-    <sheet name="cooling profile isothermal" sheetId="26" r:id="rId14"/>
+    <sheet name="Sheet2" sheetId="36" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="33" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="32" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId5"/>
+    <sheet name="Input_Layout" sheetId="1" r:id="rId6"/>
+    <sheet name="Input_Layout_new" sheetId="28" r:id="rId7"/>
+    <sheet name="Input_Chemical" sheetId="23" r:id="rId8"/>
+    <sheet name="Input_Properties" sheetId="21" r:id="rId9"/>
+    <sheet name="cooling profile" sheetId="2" r:id="rId10"/>
+    <sheet name="chemical composition both" sheetId="24" r:id="rId11"/>
+    <sheet name="cooling profile new" sheetId="25" r:id="rId12"/>
+    <sheet name="cooling profile isothermal" sheetId="26" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="81">
   <si>
     <t>time increment</t>
   </si>
@@ -682,7 +681,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,223 +1265,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="45" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="4">
-        <v>81000000000</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2">
-        <v>1709</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="4">
-        <v>31400000000000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6">
-        <v>0.1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7">
-        <v>0.06</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9">
-        <v>0.8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13">
-        <v>1.4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14">
-        <v>1E-4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16">
-        <v>0.9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="4">
-        <v>10.26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
@@ -1787,7 +1569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1919,7 +1701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
@@ -2170,7 +1952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
@@ -2531,721 +2313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB74D394-5713-40A3-A1E4-246785572834}">
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>1E-4</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.4370965112493066</v>
-      </c>
-      <c r="E3">
-        <v>0.40289224217428177</v>
-      </c>
-      <c r="F3">
-        <v>0.40289224217428177</v>
-      </c>
-      <c r="G3">
-        <v>1043</v>
-      </c>
-      <c r="H3">
-        <v>1043</v>
-      </c>
-      <c r="I3">
-        <v>100000000000</v>
-      </c>
-      <c r="J3">
-        <v>1.0848968172989264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>1E-3</v>
-      </c>
-      <c r="C4">
-        <v>0.4370965112493066</v>
-      </c>
-      <c r="D4">
-        <v>0.4370965112493066</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1043</v>
-      </c>
-      <c r="H4">
-        <v>993</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4">
-        <v>44.594594594594589</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>1E-4</v>
-      </c>
-      <c r="C5">
-        <v>0.4370965112493066</v>
-      </c>
-      <c r="D5">
-        <v>1.0224091103950834</v>
-      </c>
-      <c r="E5">
-        <v>1.0144065843081056</v>
-      </c>
-      <c r="F5">
-        <v>1.0144065843081056</v>
-      </c>
-      <c r="G5">
-        <v>993</v>
-      </c>
-      <c r="H5">
-        <v>993</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5">
-        <v>0.57699999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <v>1E-3</v>
-      </c>
-      <c r="C6">
-        <v>1.0224091103950834</v>
-      </c>
-      <c r="D6">
-        <v>1.0224091103950834</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>993</v>
-      </c>
-      <c r="H6">
-        <v>950</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7">
-        <v>1E-4</v>
-      </c>
-      <c r="C7">
-        <v>1.0224091103950834</v>
-      </c>
-      <c r="D7">
-        <v>1.6688984393447279</v>
-      </c>
-      <c r="E7">
-        <v>2.8732859064428644</v>
-      </c>
-      <c r="F7">
-        <v>2.8732859064428644</v>
-      </c>
-      <c r="G7">
-        <v>950</v>
-      </c>
-      <c r="H7">
-        <v>950</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7">
-        <v>0.22500000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CA8E0F-7DD2-4E11-A903-5338698E3815}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>1E-4</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.8</v>
-      </c>
-      <c r="E3">
-        <v>0.1</v>
-      </c>
-      <c r="F3">
-        <v>0.1</v>
-      </c>
-      <c r="G3">
-        <v>1050</v>
-      </c>
-      <c r="H3">
-        <v>1050</v>
-      </c>
-      <c r="I3">
-        <v>100000000000</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>1E-3</v>
-      </c>
-      <c r="C4">
-        <v>0.8</v>
-      </c>
-      <c r="D4">
-        <v>0.8</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1050</v>
-      </c>
-      <c r="H4">
-        <v>1000</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4">
-        <v>44.594594594594589</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>1E-4</v>
-      </c>
-      <c r="C5">
-        <v>0.8</v>
-      </c>
-      <c r="D5">
-        <v>1.4</v>
-      </c>
-      <c r="E5">
-        <v>1.0144065843081056</v>
-      </c>
-      <c r="F5">
-        <v>1.0144065843081056</v>
-      </c>
-      <c r="G5">
-        <v>1000</v>
-      </c>
-      <c r="H5">
-        <v>1000</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5">
-        <v>0.59174881099999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C01332-2CC9-4428-A43C-3668ABBFE33D}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>1E-4</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.3</v>
-      </c>
-      <c r="E3">
-        <v>0.1</v>
-      </c>
-      <c r="F3">
-        <v>0.1</v>
-      </c>
-      <c r="G3">
-        <f>950-273</f>
-        <v>677</v>
-      </c>
-      <c r="H3">
-        <v>677</v>
-      </c>
-      <c r="I3">
-        <v>100000000000</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>1E-3</v>
-      </c>
-      <c r="C4">
-        <v>0.3</v>
-      </c>
-      <c r="D4">
-        <v>0.3</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>677</v>
-      </c>
-      <c r="H4">
-        <v>677</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4">
-        <v>60</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3822E1-BBD6-4F70-A95A-96E7BB6C2EA7}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>1E-4</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.3</v>
-      </c>
-      <c r="E3">
-        <v>0.1</v>
-      </c>
-      <c r="F3">
-        <v>0.1</v>
-      </c>
-      <c r="G3">
-        <v>1050</v>
-      </c>
-      <c r="H3">
-        <v>1050</v>
-      </c>
-      <c r="I3">
-        <v>100000000000</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>1E-4</v>
-      </c>
-      <c r="C4">
-        <v>0.3</v>
-      </c>
-      <c r="D4">
-        <v>0.3</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1050</v>
-      </c>
-      <c r="H4">
-        <v>1050</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4">
-        <v>20</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF6B907-1E7A-4549-89D3-1478CC1C4098}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BD5154-09D1-447E-9A31-80C7F2F1BFC4}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3253,6 +2321,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -3314,34 +2389,34 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>1E-4</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.4370965112493066</v>
       </c>
       <c r="D3">
-        <v>0.8</v>
+        <v>1.0224091103950834</v>
       </c>
       <c r="E3">
-        <v>0.1</v>
+        <v>1.0144065843081056</v>
       </c>
       <c r="F3">
-        <v>0.1</v>
+        <v>1.0144065843081056</v>
       </c>
       <c r="G3">
-        <v>1050</v>
+        <v>993</v>
       </c>
       <c r="H3">
-        <v>1050</v>
+        <v>993</v>
       </c>
       <c r="I3">
-        <v>100000000000</v>
+        <v>175155481133.43878</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>0.57699999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -3349,7 +2424,401 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3822E1-BBD6-4F70-A95A-96E7BB6C2EA7}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>1E-4</v>
+      </c>
+      <c r="C3">
+        <v>1.0224091103950834</v>
+      </c>
+      <c r="D3">
+        <v>1.6688984393447279</v>
+      </c>
+      <c r="E3">
+        <v>2.8732859064428644</v>
+      </c>
+      <c r="F3">
+        <v>2.8732859064428644</v>
+      </c>
+      <c r="G3">
+        <v>1050</v>
+      </c>
+      <c r="H3">
+        <v>1050</v>
+      </c>
+      <c r="I3">
+        <v>100000000000</v>
+      </c>
+      <c r="J3">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>1E-3</v>
+      </c>
+      <c r="C4">
+        <v>1.6688984393447279</v>
+      </c>
+      <c r="D4">
+        <v>1.6688984393447279</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1050</v>
+      </c>
+      <c r="H4">
+        <v>850</v>
+      </c>
+      <c r="J4">
+        <v>27.619047619047617</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF6B907-1E7A-4549-89D3-1478CC1C4098}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="9" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>1E-4</v>
+      </c>
+      <c r="C3">
+        <v>1.0224091103950834</v>
+      </c>
+      <c r="D3">
+        <v>1.6688984393447279</v>
+      </c>
+      <c r="E3">
+        <v>2.8732859064428644</v>
+      </c>
+      <c r="F3">
+        <v>2.8732859064428644</v>
+      </c>
+      <c r="G3">
+        <v>950</v>
+      </c>
+      <c r="H3">
+        <v>950</v>
+      </c>
+      <c r="I3" s="4">
+        <v>205705635338034</v>
+      </c>
+      <c r="J3">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC063526-A757-461F-8D14-2D2C0C25AA33}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>1E-4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.4370965112493066</v>
+      </c>
+      <c r="E3">
+        <v>0.40289224217428177</v>
+      </c>
+      <c r="F3">
+        <v>0.40289224217428177</v>
+      </c>
+      <c r="G3">
+        <v>1043</v>
+      </c>
+      <c r="H3">
+        <v>1043</v>
+      </c>
+      <c r="I3">
+        <v>100000000000</v>
+      </c>
+      <c r="J3">
+        <v>1.0848968172989264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1E-3</v>
+      </c>
+      <c r="C4">
+        <v>0.4370965112493066</v>
+      </c>
+      <c r="D4">
+        <v>0.4370965112493066</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1043</v>
+      </c>
+      <c r="H4">
+        <v>993</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>44.594594594594589</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -3957,7 +3426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -4560,7 +4029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -4653,4 +4122,221 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="4">
+        <v>81000000000</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>1709</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4">
+        <v>31400000000000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>0.06</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <v>0.8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>1.4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14">
+        <v>1E-4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16">
+        <v>0.9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="4">
+        <v>10.26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test_srx.xlsx
+++ b/Test_srx.xlsx
@@ -3,24 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CDB12E-4CC3-4C2D-86DE-BBF04064E07D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D5F8C9-E353-407E-A69F-8471A6309D80}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10890" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Static_RX" sheetId="29" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="36" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="33" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="32" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId5"/>
-    <sheet name="Input_Layout" sheetId="1" r:id="rId6"/>
-    <sheet name="Input_Layout_new" sheetId="28" r:id="rId7"/>
-    <sheet name="Input_Chemical" sheetId="23" r:id="rId8"/>
-    <sheet name="Input_Properties" sheetId="21" r:id="rId9"/>
-    <sheet name="cooling profile" sheetId="2" r:id="rId10"/>
-    <sheet name="chemical composition both" sheetId="24" r:id="rId11"/>
-    <sheet name="cooling profile new" sheetId="25" r:id="rId12"/>
-    <sheet name="cooling profile isothermal" sheetId="26" r:id="rId13"/>
+    <sheet name="Sheet5" sheetId="37" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="36" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="33" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="32" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId6"/>
+    <sheet name="Input_Layout" sheetId="1" r:id="rId7"/>
+    <sheet name="Input_Layout_new" sheetId="28" r:id="rId8"/>
+    <sheet name="Input_Chemical" sheetId="23" r:id="rId9"/>
+    <sheet name="Input_Properties" sheetId="21" r:id="rId10"/>
+    <sheet name="cooling profile" sheetId="2" r:id="rId11"/>
+    <sheet name="chemical composition both" sheetId="24" r:id="rId12"/>
+    <sheet name="cooling profile new" sheetId="25" r:id="rId13"/>
+    <sheet name="cooling profile isothermal" sheetId="26" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="81">
   <si>
     <t>time increment</t>
   </si>
@@ -681,7 +682,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,6 +1266,223 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="4">
+        <v>81000000000</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>1709</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4">
+        <v>31400000000000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>0.06</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <v>0.8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>1.4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14">
+        <v>1E-4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16">
+        <v>0.9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="4">
+        <v>10.26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
@@ -1569,7 +1787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1701,7 +1919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
@@ -1952,7 +2170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
@@ -2313,6 +2531,590 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160AC353-82F8-4443-AD43-A0C591FFDB86}">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>1E-4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.4370965112493066</v>
+      </c>
+      <c r="E3">
+        <v>0.40289224217428177</v>
+      </c>
+      <c r="F3">
+        <v>0.40289224217428177</v>
+      </c>
+      <c r="G3">
+        <v>1043</v>
+      </c>
+      <c r="H3">
+        <v>1043</v>
+      </c>
+      <c r="I3">
+        <v>100000000000</v>
+      </c>
+      <c r="J3">
+        <v>1.0848968172989264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1E-3</v>
+      </c>
+      <c r="C4">
+        <v>0.4370965112493066</v>
+      </c>
+      <c r="D4">
+        <v>0.4370965112493066</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1043</v>
+      </c>
+      <c r="H4">
+        <v>993</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>44.594594594594589</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>1E-4</v>
+      </c>
+      <c r="C5">
+        <v>0.4370965112493066</v>
+      </c>
+      <c r="D5">
+        <v>1.0224091103950834</v>
+      </c>
+      <c r="E5">
+        <v>1.0144065843081056</v>
+      </c>
+      <c r="F5">
+        <v>1.0144065843081056</v>
+      </c>
+      <c r="G5">
+        <v>993</v>
+      </c>
+      <c r="H5">
+        <v>993</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>0.57699999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>1E-3</v>
+      </c>
+      <c r="C6">
+        <v>1.0224091103950834</v>
+      </c>
+      <c r="D6">
+        <v>1.0224091103950834</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>993</v>
+      </c>
+      <c r="H6">
+        <v>950</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>1E-4</v>
+      </c>
+      <c r="C7">
+        <v>1.0224091103950834</v>
+      </c>
+      <c r="D7">
+        <v>1.6688984393447279</v>
+      </c>
+      <c r="E7">
+        <v>2.8732859064428644</v>
+      </c>
+      <c r="F7">
+        <v>2.8732859064428644</v>
+      </c>
+      <c r="G7">
+        <v>950</v>
+      </c>
+      <c r="H7">
+        <v>950</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>1E-4</v>
+      </c>
+      <c r="C8">
+        <v>1.6688984393447279</v>
+      </c>
+      <c r="D8">
+        <v>1.6688984393447279</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>950</v>
+      </c>
+      <c r="H8">
+        <v>887</v>
+      </c>
+      <c r="J8">
+        <v>27.619047619047617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>1E-4</v>
+      </c>
+      <c r="C9">
+        <v>1.6688984393447279</v>
+      </c>
+      <c r="D9">
+        <v>1.6688984393447279</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>887</v>
+      </c>
+      <c r="H9">
+        <v>1115</v>
+      </c>
+      <c r="J9">
+        <v>13.095238095238095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>1E-4</v>
+      </c>
+      <c r="C10">
+        <v>1.6688984393447279</v>
+      </c>
+      <c r="D10">
+        <v>1.6688984393447279</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1115</v>
+      </c>
+      <c r="H10">
+        <v>1030</v>
+      </c>
+      <c r="J10">
+        <v>19.285714285714285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>1E-4</v>
+      </c>
+      <c r="C11">
+        <v>1.6688984393447279</v>
+      </c>
+      <c r="D11">
+        <v>2.4252664695945025</v>
+      </c>
+      <c r="E11">
+        <v>9.0043813124973155</v>
+      </c>
+      <c r="F11">
+        <v>9.0043813124973155</v>
+      </c>
+      <c r="G11">
+        <v>1030</v>
+      </c>
+      <c r="H11">
+        <v>1030</v>
+      </c>
+      <c r="J11">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>1E-4</v>
+      </c>
+      <c r="C12">
+        <v>2.4252664695945025</v>
+      </c>
+      <c r="D12">
+        <v>2.4252664695945025</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1030</v>
+      </c>
+      <c r="H12">
+        <v>986</v>
+      </c>
+      <c r="J12">
+        <v>5.5970149253731343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>1E-4</v>
+      </c>
+      <c r="C13">
+        <v>2.4252664695945025</v>
+      </c>
+      <c r="D13">
+        <v>3.017791991618723</v>
+      </c>
+      <c r="E13">
+        <v>19.750850734140684</v>
+      </c>
+      <c r="F13">
+        <v>19.750850734140684</v>
+      </c>
+      <c r="G13">
+        <v>986</v>
+      </c>
+      <c r="H13">
+        <v>986</v>
+      </c>
+      <c r="J13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>1E-4</v>
+      </c>
+      <c r="C14">
+        <v>3.017791991618723</v>
+      </c>
+      <c r="D14">
+        <v>3.017791991618723</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>986</v>
+      </c>
+      <c r="H14">
+        <v>943</v>
+      </c>
+      <c r="J14">
+        <v>3.0927835051546388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C15">
+        <v>3.017791991618723</v>
+      </c>
+      <c r="D15">
+        <v>3.5005155828640193</v>
+      </c>
+      <c r="E15">
+        <v>43.88396284048148</v>
+      </c>
+      <c r="F15">
+        <v>43.88396284048148</v>
+      </c>
+      <c r="G15">
+        <v>943</v>
+      </c>
+      <c r="H15">
+        <v>943</v>
+      </c>
+      <c r="J15">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>1E-4</v>
+      </c>
+      <c r="C16">
+        <v>3.5005155828640193</v>
+      </c>
+      <c r="D16">
+        <v>3.5005155828640193</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>943</v>
+      </c>
+      <c r="H16">
+        <v>902</v>
+      </c>
+      <c r="J16">
+        <v>1.9096117122851686</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C17">
+        <v>3.5005155828640193</v>
+      </c>
+      <c r="D17">
+        <v>3.880700534299105</v>
+      </c>
+      <c r="E17">
+        <v>63.364158572514278</v>
+      </c>
+      <c r="F17">
+        <v>63.364158572514278</v>
+      </c>
+      <c r="G17">
+        <v>902</v>
+      </c>
+      <c r="H17">
+        <v>902</v>
+      </c>
+      <c r="J17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>1E-4</v>
+      </c>
+      <c r="C18">
+        <v>3.880700534299105</v>
+      </c>
+      <c r="D18">
+        <v>3.880700534299105</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>902</v>
+      </c>
+      <c r="H18">
+        <v>862</v>
+      </c>
+      <c r="J18">
+        <v>1.3060513713539399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C19">
+        <v>3.880700534299105</v>
+      </c>
+      <c r="D19">
+        <v>4.0852947267021831</v>
+      </c>
+      <c r="E19">
+        <v>68.198064134359356</v>
+      </c>
+      <c r="F19">
+        <v>68.198064134359356</v>
+      </c>
+      <c r="G19">
+        <v>862</v>
+      </c>
+      <c r="H19">
+        <v>862</v>
+      </c>
+      <c r="J19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BD5154-09D1-447E-9A31-80C7F2F1BFC4}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -2424,17 +3226,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3822E1-BBD6-4F70-A95A-96E7BB6C2EA7}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
@@ -2536,7 +3341,7 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="C4">
         <v>1.6688984393447279</v>
@@ -2554,7 +3359,10 @@
         <v>1050</v>
       </c>
       <c r="H4">
-        <v>850</v>
+        <v>1050</v>
+      </c>
+      <c r="I4">
+        <v>1050</v>
       </c>
       <c r="J4">
         <v>27.619047619047617</v>
@@ -2568,16 +3376,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF6B907-1E7A-4549-89D3-1478CC1C4098}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
@@ -2652,111 +3461,6 @@
         <v>1E-4</v>
       </c>
       <c r="C3">
-        <v>1.0224091103950834</v>
-      </c>
-      <c r="D3">
-        <v>1.6688984393447279</v>
-      </c>
-      <c r="E3">
-        <v>2.8732859064428644</v>
-      </c>
-      <c r="F3">
-        <v>2.8732859064428644</v>
-      </c>
-      <c r="G3">
-        <v>950</v>
-      </c>
-      <c r="H3">
-        <v>950</v>
-      </c>
-      <c r="I3" s="4">
-        <v>205705635338034</v>
-      </c>
-      <c r="J3">
-        <v>0.22500000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC063526-A757-461F-8D14-2D2C0C25AA33}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>1E-4</v>
-      </c>
-      <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
@@ -2779,38 +3483,6 @@
       </c>
       <c r="J3">
         <v>1.0848968172989264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>1E-3</v>
-      </c>
-      <c r="C4">
-        <v>0.4370965112493066</v>
-      </c>
-      <c r="D4">
-        <v>0.4370965112493066</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1043</v>
-      </c>
-      <c r="H4">
-        <v>993</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4">
-        <v>44.594594594594589</v>
       </c>
     </row>
   </sheetData>
@@ -2819,11 +3491,158 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC063526-A757-461F-8D14-2D2C0C25AA33}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>1E-4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.4370965112493066</v>
+      </c>
+      <c r="E3">
+        <v>0.40289224217428177</v>
+      </c>
+      <c r="F3">
+        <v>0.40289224217428177</v>
+      </c>
+      <c r="G3">
+        <v>1043</v>
+      </c>
+      <c r="H3">
+        <v>1043</v>
+      </c>
+      <c r="I3">
+        <v>100000000000</v>
+      </c>
+      <c r="J3">
+        <v>1.0848968172989264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1E-3</v>
+      </c>
+      <c r="C4">
+        <v>0.4370965112493066</v>
+      </c>
+      <c r="D4">
+        <v>0.4370965112493066</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1043</v>
+      </c>
+      <c r="H4">
+        <v>993</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>44.594594594594589</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3426,7 +4245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -4029,7 +4848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -4122,221 +4941,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="45" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="4">
-        <v>81000000000</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2">
-        <v>1709</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="4">
-        <v>31400000000000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6">
-        <v>0.1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7">
-        <v>0.06</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9">
-        <v>0.8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13">
-        <v>1.4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14">
-        <v>1E-4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16">
-        <v>0.9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="4">
-        <v>10.26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>